--- a/Assign_3/NSP Timecard.xlsx
+++ b/Assign_3/NSP Timecard.xlsx
@@ -891,11 +891,7 @@
           <t xml:space="preserve">No: </t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ghgjgj</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3" ht="16.05" customHeight="1" s="28">
       <c r="C3" s="27" t="inlineStr">
@@ -924,11 +920,7 @@
           <t xml:space="preserve">Employee Name: </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>hjty</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6" ht="16.05" customHeight="1" s="28" thickBot="1"/>
     <row r="7">
@@ -1006,10 +998,14 @@
     <row r="9">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>jt</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>-9888</t>
+        </is>
+      </c>
       <c r="C9" s="12" t="n"/>
       <c r="D9" s="12" t="n"/>
       <c r="E9" s="2" t="n"/>
@@ -1036,8 +1032,16 @@
       <c r="L10" s="25" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="inlineStr"/>
-      <c r="B11" s="12" t="inlineStr"/>
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
       <c r="C11" s="12" t="n"/>
       <c r="D11" s="12" t="n"/>
       <c r="E11" s="2" t="n"/>
@@ -1064,8 +1068,16 @@
       <c r="L12" s="25" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="inlineStr"/>
-      <c r="B13" s="12" t="inlineStr"/>
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
       <c r="C13" s="12" t="n"/>
       <c r="D13" s="12" t="n"/>
       <c r="E13" s="2" t="n"/>
@@ -1092,8 +1104,16 @@
       <c r="L14" s="25" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="inlineStr"/>
-      <c r="B15" s="12" t="inlineStr"/>
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B15" s="12" t="inlineStr">
+        <is>
+          <t>-9999</t>
+        </is>
+      </c>
       <c r="C15" s="12" t="n"/>
       <c r="D15" s="12" t="n"/>
       <c r="E15" s="2" t="n"/>
@@ -1120,8 +1140,16 @@
       <c r="L16" s="25" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="inlineStr"/>
-      <c r="B17" s="12" t="inlineStr"/>
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>44486876</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>-9.61</t>
+        </is>
+      </c>
       <c r="C17" s="12" t="n"/>
       <c r="D17" s="12" t="n"/>
       <c r="E17" s="2" t="n"/>
